--- a/Data/TestData/LeaveMusterData.xlsx
+++ b/Data/TestData/LeaveMusterData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>testId</t>
   </si>
@@ -40,7 +40,10 @@
     <t>modules.payroll.tests.LeaveMusterTest</t>
   </si>
   <si>
-    <t>NewEmp</t>
+    <t>ViewMuster</t>
+  </si>
+  <si>
+    <t>SyncLeaveMuster,AddLeaves,</t>
   </si>
   <si>
     <t>admin</t>
@@ -55,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -105,29 +108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -138,6 +118,59 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,73 +184,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -242,61 +245,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +335,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,91 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +436,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,15 +459,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +478,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,15 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,15 +528,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -536,7 +539,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,130 +557,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,14 +1015,14 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="48.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
@@ -1089,10 +1092,6 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:32">
@@ -1105,48 +1104,28 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
       <c r="AC2" s="6"/>
-      <c r="AD2"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="10:32">
       <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
       <c r="AC3" s="6"/>
-      <c r="AD3"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="29:32">
       <c r="AC4" s="5"/>
-      <c r="AD4"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
     </row>

--- a/Data/TestData/LeaveMusterData.xlsx
+++ b/Data/TestData/LeaveMusterData.xlsx
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -100,13 +100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -124,6 +117,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -131,6 +132,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -139,6 +154,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -155,72 +177,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -245,6 +245,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,55 +299,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,37 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,73 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +444,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,39 +479,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -507,6 +489,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +519,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -539,15 +539,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,15 +1015,15 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="48.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="39.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="11.2857142857143" customWidth="1"/>

--- a/Data/TestData/LeaveMusterData.xlsx
+++ b/Data/TestData/LeaveMusterData.xlsx
@@ -57,8 +57,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -93,10 +93,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,9 +137,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +185,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -132,45 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,14 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -205,32 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +245,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,13 +341,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,157 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,30 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,17 +454,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +498,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -525,162 +536,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Data/TestData/LeaveMusterData.xlsx
+++ b/Data/TestData/LeaveMusterData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>testId</t>
   </si>
@@ -34,6 +34,18 @@
     <t>user_password</t>
   </si>
   <si>
+    <t>leave_balance</t>
+  </si>
+  <si>
+    <t>from_date</t>
+  </si>
+  <si>
+    <t>to_date</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
     <t>leavemuster_001</t>
   </si>
   <si>
@@ -43,13 +55,16 @@
     <t>ViewMuster</t>
   </si>
   <si>
-    <t>SyncLeaveMuster,AddLeaves,</t>
+    <t>,,ViewLeaves,</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>SyncLeaveMuster,AddLeaves,ViewLeaves,</t>
   </si>
 </sst>
 </file>
@@ -58,11 +73,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +92,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -93,31 +114,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,7 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,33 +160,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,46 +198,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,26 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +514,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -539,22 +560,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -563,136 +584,138 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1037,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1026,7 +1049,7 @@
     <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
     <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
@@ -1092,42 +1115,86 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="AC2" s="6"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43881</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43886</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="AC2" s="8"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="10:32">
+    <row r="3" spans="8:32">
+      <c r="H3" s="5"/>
       <c r="J3" s="3"/>
-      <c r="AC3" s="6"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
+      <c r="AC3" s="8"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
     </row>
-    <row r="4" spans="29:32">
-      <c r="AC4" s="5"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+    <row r="4" spans="4:32">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="AC4" s="7"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="10:10">
       <c r="J11" s="3"/>

--- a/Data/TestData/LeaveMusterData.xlsx
+++ b/Data/TestData/LeaveMusterData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>testId</t>
   </si>
@@ -55,13 +55,22 @@
     <t>ViewMuster</t>
   </si>
   <si>
-    <t>,,ViewLeaves,</t>
+    <t>,AddLeaves,,NA</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>25-MAR-2020</t>
+  </si>
+  <si>
+    <t>27-MAR-2020</t>
+  </si>
+  <si>
+    <t>Happy Birthday</t>
   </si>
   <si>
     <t>SyncLeaveMuster,AddLeaves,ViewLeaves,</t>
@@ -73,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -122,22 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,17 +146,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,82 +178,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,49 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,132 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +466,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,30 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -510,17 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +532,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -557,10 +555,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,144 +587,146 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,8 +1048,8 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1046,13 +1057,12 @@
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="39.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="42.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="14.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="30.2857142857143" customWidth="1"/>
+    <col min="8" max="9" width="13.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="15.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
@@ -1127,7 +1137,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="3" t="s">
@@ -1151,50 +1161,52 @@
       <c r="G2" s="4">
         <v>49.5</v>
       </c>
-      <c r="H2" s="5">
-        <v>43881</v>
-      </c>
-      <c r="I2" s="5">
-        <v>43886</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="AC2" s="8"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="8:32">
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="J3" s="3"/>
-      <c r="AC3" s="8"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="4:32">
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="AC4" s="7"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="AC4" s="8"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" spans="8:8">
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="8:8">
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="8:8">
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="10:10">
       <c r="J11" s="3"/>
